--- a/WebContent/Templet/新合同外援考勤表-模板.xlsx
+++ b/WebContent/Templet/新合同外援考勤表-模板.xlsx
@@ -9,10 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="15855" windowHeight="8925"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="15855" windowHeight="8925" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="41" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="42" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="43" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="44" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="45" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="46" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="47" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="48" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="49" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="x">geworkbook(4)</definedName>
@@ -22,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -84,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,12 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -616,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,4 +944,2866 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="34.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="14"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.15">
+      <c r="H33" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebContent/Templet/新合同外援考勤表-模板.xlsx
+++ b/WebContent/Templet/新合同外援考勤表-模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="15855" windowHeight="8925" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="15855" windowHeight="8925"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="40" r:id="rId1"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -950,7 +950,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
